--- a/data/excel/sample_submission.xlsx
+++ b/data/excel/sample_submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктор\Documents\GitHub\MGC\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D60E8F-94B5-424D-8FDC-EC7DB89A85D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E37CBE-A1F9-470B-9DF2-30B398B6FB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>dt</t>
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -36,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,11 +395,12 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -413,9 +411,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -424,9 +420,6 @@
       <c r="B2">
         <v>46000</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -435,9 +428,6 @@
       <c r="B3">
         <v>46000</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -446,9 +436,6 @@
       <c r="B4">
         <v>46000</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -457,9 +444,6 @@
       <c r="B5">
         <v>45500</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -468,9 +452,6 @@
       <c r="B6">
         <v>45500</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -479,9 +460,6 @@
       <c r="B7">
         <v>45000</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -490,9 +468,6 @@
       <c r="B8">
         <v>44000</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -501,9 +476,6 @@
       <c r="B9">
         <v>43000</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -512,9 +484,6 @@
       <c r="B10">
         <v>42000</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -523,9 +492,6 @@
       <c r="B11">
         <v>41500</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -534,9 +500,6 @@
       <c r="B12">
         <v>41000</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -545,9 +508,6 @@
       <c r="B13">
         <v>40000</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -556,9 +516,6 @@
       <c r="B14">
         <v>40000</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -567,9 +524,6 @@
       <c r="B15">
         <v>40500</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -578,151 +532,109 @@
       <c r="B16">
         <v>41700</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44914</v>
       </c>
       <c r="B17">
         <v>41700</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44921</v>
       </c>
       <c r="B18">
         <v>42500</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44928</v>
       </c>
       <c r="B19">
         <v>42700</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44935</v>
       </c>
       <c r="B20">
         <v>42700</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44942</v>
       </c>
       <c r="B21">
         <v>42700</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44949</v>
       </c>
       <c r="B22">
         <v>42800</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44956</v>
       </c>
       <c r="B23">
         <v>42800</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44963</v>
       </c>
       <c r="B24">
         <v>44500</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44970</v>
       </c>
       <c r="B25">
         <v>44500</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44977</v>
       </c>
       <c r="B26">
         <v>46000</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44984</v>
       </c>
       <c r="B27">
         <v>49200</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44991</v>
       </c>
       <c r="B28">
         <v>53700</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44998</v>
       </c>
       <c r="B29">
         <v>55500</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
